--- a/Dataset/Folds/Fold_4/Excel/71.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/71.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5000" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5576" uniqueCount="817">
   <si>
     <t>Doi</t>
   </si>
@@ -2565,6 +2565,232 @@
   </si>
   <si>
     <t>[Ishan%Paranjpe%NULL%0,                            Adam J%Russak%NULL%2,                            Adam J%Russak%NULL%0,                            Jessica K%De Freitas%NULL%1,                            Anuradha%Lala%NULL%1,                            Riccardo%Miotto%NULL%1,                            Akhil%Vaid%NULL%1,                            Kipp W%Johnson%NULL%1,                            Matteo%Danieletto%NULL%1,                            Eddye%Golden%NULL%1,                            Dara%Meyer%NULL%1,                            Manbir%Singh%NULL%1,                            Sulaiman%Somani%NULL%1,                            Arjun%Kapoor%NULL%1,                            Ross%O'Hagan%NULL%1,                            Sayan%Manna%NULL%1,                            Udit%Nangia%NULL%1,                            Suraj K%Jaladanki%NULL%1,                            Paul%O’Reilly%NULL%2,                            Paul%O’Reilly%NULL%0,                            Laura M%Huckins%NULL%1,                            Patricia%Glowe%NULL%1,                            Arash%Kia%NULL%1,                            Prem%Timsina%NULL%1,                            Robert M%Freeman%NULL%1,                            Matthew A%Levin%NULL%1,                            Jeffrey%Jhang%NULL%1,                            Adolfo%Firpo%NULL%1,                            Patricia%Kovatch%NULL%1,                            Joseph%Finkelstein%NULL%1,                            Judith A%Aberg%NULL%1,                            Emilia%Bagiella%NULL%1,                            Carol R%Horowitz%NULL%1,                            Barbara%Murphy%NULL%1,                            Zahi A%Fayad%NULL%1,                            Jagat%Narula%NULL%1,                            Eric J%Nestler%NULL%1,                            V%Fuster%NULL%1,                            Carlos%Cordon-Cardo%NULL%1,                            Dennis%Charney%NULL%1,                            David L%Reich%NULL%1,                            Allan%Just%NULL%1,                            Erwin P%Bottinger%NULL%1,                            Alexander W%Charney%NULL%1,                            Benjamin S%Glicksberg%NULL%1,                            Girish N%Nadkarni%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                             Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                             Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                             Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                             Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                             Bruno%Riou%bruno.riou@aphp.fr%2,                             Bruno%Riou%bruno.riou@aphp.fr%0,                             Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                             Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                             Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                             Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                             Peiyun%Li%NULL%1,                             Liang%Ma%NULL%1,                             Hang%Liang%NULL%1,                             Jie%Lei%NULL%0,                             Wenqiang%Li%NULL%1,                             Kun%Wang%NULL%0,                             Yu%Song%NULL%1,                             Shuai%Li%NULL%1,                             Wei%Yang%NULL%1,                             Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                             Ting%Yu%NULL%0,                             Ronghui%Du%NULL%0,                             Guohui%Fan%NULL%0,                             Ying%Liu%NULL%0,                             Zhibo%Liu%NULL%0,                             Jie%Xiang%NULL%0,                             Yeming%Wang%NULL%0,                             Bin%Song%NULL%0,                             Xiaoying%Gu%NULL%0,                             Lulu%Guan%NULL%0,                             Yuan%Wei%NULL%0,                             Hui%Li%NULL%0,                             Xudong%Wu%NULL%0,                             Jiuyang%Xu%NULL%0,                             Shengjin%Tu%NULL%0,                             Yi%Zhang%NULL%0,                             Hua%Chen%NULL%0,                             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                             Zhiheng%Xu%NULL%1,                             Xuesong%Liu%NULL%1,                             Lihua%Cai%NULL%1,                             Haichong%Zheng%NULL%1,                             Yongbo%Huang%NULL%1,                             Lixin%Zhou%NULL%1,                             Linxi%Huang%NULL%1,                             Yun%Ling%NULL%0,                             Liehua%Deng%NULL%1,                             Jianwei%Li%NULL%0,                             Sibei%Chen%NULL%1,                             Dongdong%Liu%NULL%1,                             Zhimin%Lin%NULL%1,                             Liang%Zhou%NULL%1,                             Weiqun%He%NULL%1,                             Nanshan%Zhong%NULL%0,                             Xiaoqing%Liu%NULL%3,                             Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                             Li-jun%Sun%NULL%1,                             Mi%Xu%NULL%1,                             Jian%Pan%NULL%1,                             Yun-tao%Zhang%NULL%1,                             Xue-ling%Fang%NULL%1,                             Qiang%Fang%NULL%1,                             Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                             Li-Min%Liu%NULL%2,                             Wen%Yin%NULL%0,                             Wen%Wang%NULL%0,                             Lu-Lu%Guan%NULL%2,                             Ming-Li%Yuan%NULL%0,                             Yu-Lei%Li%NULL%2,                             Yi%Hu%NULL%0,                             Xu-Yan%Li%NULL%0,                             Bing%Sun%NULL%2,                             Peng%Peng%NULL%0,                             Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                             Wenlin%Cheng%NULL%0,                             Lei%Yu%NULL%0,                             Ya-Kun%Liu%NULL%0,                             Xiaoyong%Hu%NULL%0,                             Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Zheng-yi%Ni%NULL%0,                             Yu%Hu%NULL%0,                             Wen-hua%Liang%NULL%0,                             Chun-quan%Ou%NULL%0,                             Jian-xing%He%NULL%0,                             Lei%Liu%NULL%0,                             Hong%Shan%NULL%0,                             Chun-liang%Lei%NULL%0,                             David S.C.%Hui%NULL%0,                             Bin%Du%NULL%0,                             Lan-juan%Li%NULL%0,                             Guang%Zeng%NULL%0,                             Kwok-Yung%Yuen%NULL%0,                             Ru-chong%Chen%NULL%0,                             Chun-li%Tang%NULL%0,                             Tao%Wang%NULL%0,                             Ping-yan%Chen%NULL%0,                             Jie%Xiang%NULL%0,                             Shi-yue%Li%NULL%0,                             Jin-lin%Wang%NULL%0,                             Zi-jing%Liang%NULL%0,                             Yi-xiang%Peng%NULL%0,                             Li%Wei%NULL%0,                             Yong%Liu%NULL%0,                             Ya-hua%Hu%NULL%0,                             Peng%Peng%NULL%0,                             Jian-ming%Wang%NULL%0,                             Ji-yang%Liu%NULL%0,                             Zhong%Chen%NULL%0,                             Gang%Li%NULL%0,                             Zhi-jian%Zheng%NULL%0,                             Shao-qin%Qiu%NULL%0,                             Jie%Luo%NULL%0,                             Chang-jiang%Ye%NULL%0,                             Shao-yong%Zhu%NULL%0,                             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                             Fang%Jiang%NULL%0,                             Wating%Su%NULL%2,                             Chang%Chen%NULL%2,                             Jingli%Chen%NULL%2,                             Wei%Mei%NULL%2,                             Li-Ying%Zhan%NULL%2,                             Yifan%Jia%NULL%2,                             Liangqing%Zhang%NULL%2,                             Danyong%Liu%NULL%2,                             Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                             Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                             Yuan%Yu%NULL%0,                             Jiqian%Xu%NULL%0,                             Huaqing%Shu%NULL%0,                             Jia'an%Xia%NULL%0,                             Hong%Liu%NULL%0,                             Yongran%Wu%NULL%0,                             Lu%Zhang%NULL%0,                             Zhui%Yu%NULL%0,                             Minghao%Fang%NULL%0,                             Ting%Yu%NULL%0,                             Yaxin%Wang%NULL%0,                             Shangwen%Pan%NULL%0,                             Xiaojing%Zou%NULL%0,                             Shiying%Yuan%NULL%0,                             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                             Yeming%Wang%NULL%0,                             Xingwang%Li%NULL%0,                             Lili%Ren%NULL%0,                             Jianping%Zhao%NULL%0,                             Yi%Hu%NULL%0,                             Li%Zhang%NULL%0,                             Guohui%Fan%NULL%0,                             Jiuyang%Xu%NULL%0,                             Xiaoying%Gu%NULL%0,                             Zhenshun%Cheng%NULL%0,                             Ting%Yu%NULL%0,                             Jiaan%Xia%NULL%0,                             Yuan%Wei%NULL%0,                             Wenjuan%Wu%NULL%0,                             Xuelei%Xie%NULL%0,                             Wen%Yin%NULL%0,                             Hui%Li%NULL%0,                             Min%Liu%NULL%0,                             Yan%Xiao%NULL%0,                             Hong%Gao%NULL%0,                             Li%Guo%NULL%0,                             Jungang%Xie%NULL%0,                             Guangfa%Wang%NULL%0,                             Rongmeng%Jiang%NULL%0,                             Zhancheng%Gao%NULL%0,                             Qi%Jin%NULL%0,                             Jianwei%Wang%wangjw28@163.com%0,                             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                             Xiaofan%Lu%NULL%1,                             Yongsheng%Li%NULL%2,                             Yongsheng%Li%NULL%0,                             Hui%Chen%NULL%3,                             Taige%Chen%NULL%1,                             Nan%Su%NULL%1,                             Fang%Huang%NULL%1,                             Jing%Zhou%NULL%1,                             Bing%Zhang%NULL%1,                             Fangrong%Yan%NULL%2,                             Fangrong%Yan%NULL%0,                             Jun%Wang%NULL%2,                             Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                             Mikael%Chetboun%NULL%1,                             Julien%Poissy%NULL%1,                             Violeta%Raverdy%NULL%1,                             Jerome%Noulette%NULL%2,                             Jerome%Noulette%NULL%0,                             Alain%Duhamel%NULL%0,                             Julien%Labreuche%NULL%0,                             Daniel%Mathieu%NULL%2,                             Francois%Pattou%francois.pattou@univ-lille.fr%1,                             Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                             Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                             Robert%Caizzo%NULL%2,                             Robert%Caizzo%NULL%0,                             Morgan%Caplan%NULL%1,                             Nicolas%Cousin%NULL%1,                             Thibault%Duburcq%NULL%1,                             Arthur%Durand%NULL%1,                             Ahmed%El kalioubie%NULL%1,                             Raphael%Favory%NULL%1,                             Bruno%Garcia%NULL%1,                             Patrick%Girardie%NULL%1,                             Julien%Goutay%NULL%1,                             Marion%Houard%NULL%1,                             Emmanuelle%Jaillette%NULL%1,                             Nicolas%Kostuj%NULL%1,                             Geoffrey%Ledoux%NULL%1,                             Daniel%Mathieu%NULL%0,                             Anne Sophie%Moreau%NULL%1,                             Christopher%Niles%NULL%1,                             Saad%Nseir%NULL%1,                             Thierry%Onimus%NULL%1,                             Erika%Parmentier%NULL%1,                             Sebastien%Préau%NULL%1,                             Laurent%Robriquet%NULL%1,                             Anahita%Rouze%NULL%1,                             Sophie%Six%NULL%1,                             Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                             Samuel L%Bruce%NULL%1,                             Cody L%Slater%NULL%1,                             Jonathan R%Tiao%NULL%1,                             Matthew R%Baldwin%NULL%2,                             R Graham%Barr%NULL%1,                             Bernard P%Chang%NULL%1,                             Katherine H%Chau%NULL%1,                             Justin J%Choi%NULL%1,                             Nicholas%Gavin%NULL%1,                             Parag%Goyal%NULL%1,                             Angela M%Mills%NULL%1,                             Ashmi A%Patel%NULL%1,                             Marie-Laure S%Romney%NULL%1,                             Monika M%Safford%NULL%1,                             Neil W%Schluger%NULL%1,                             Soumitra%Sengupta%NULL%1,                             Magdalena E%Sobieszczyk%NULL%1,                             Jason E%Zucker%NULL%1,                             Paul A%Asadourian%NULL%1,                             Fletcher M%Bell%NULL%1,                             Rebekah%Boyd%NULL%1,                             Matthew F%Cohen%NULL%1,                             MacAlistair I%Colquhoun%NULL%1,                             Lucy A%Colville%NULL%1,                             Joseph H%de Jonge%NULL%1,                             Lyle B%Dershowitz%NULL%1,                             Shirin A%Dey%NULL%1,                             Katherine A%Eiseman%NULL%1,                             Zachary P%Girvin%NULL%1,                             Daniella T%Goni%NULL%1,                             Amro A%Harb%NULL%1,                             Nicholas%Herzik%NULL%1,                             Sarah%Householder%NULL%1,                             Lara E%Karaaslan%NULL%1,                             Heather%Lee%NULL%1,                             Evan%Lieberman%NULL%1,                             Andrew%Ling%NULL%1,                             Ree%Lu%NULL%1,                             Arthur Y%Shou%NULL%1,                             Alexander C%Sisti%NULL%1,                             Zachary E%Snow%NULL%1,                             Colin P%Sperring%NULL%1,                             Yuqing%Xiong%NULL%1,                             Henry W%Zhou%NULL%1,                             Karthik%Natarajan%NULL%1,                             George%Hripcsak%NULL%1,                             Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                             Mark%Caridi-Scheible%NULL%0,                             James M.%Blum%NULL%0,                             Chad%Robichaux%NULL%0,                             Colleen%Kraft%NULL%0,                             Jesse T.%Jacob%NULL%0,                             Craig S.%Jabaley%NULL%0,                             David%Carpenter%NULL%0,                             Roberta%Kaplow%NULL%0,                             Alfonso C.%Hernandez-Romieu%NULL%0,                             Max W.%Adelman%NULL%0,                             Greg S.%Martin%NULL%0,                             Craig M.%Coopersmith%NULL%0,                             David J.%Murphy%NULL%0,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                             Bijan J.%Ghassemieh%NULL%0,                             Michelle%Nichols%NULL%0,                             Richard%Kim%NULL%0,                             Keith R.%Jerome%NULL%0,                             Arun K.%Nalla%NULL%0,                             Alexander L.%Greninger%NULL%0,                             Sudhakar%Pipavath%NULL%0,                             Mark M.%Wurfel%NULL%0,                             Laura%Evans%NULL%0,                             Patricia A.%Kritek%NULL%0,                             T. Eoin%West%NULL%0,                             Andrew%Luks%NULL%0,                             Anthony%Gerbino%NULL%0,                             Chris R.%Dale%NULL%0,                             Jason D.%Goldman%NULL%0,                             Shane%O’Mahony%NULL%0,                             Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                             Jehan%Alladina%NULL%2,                             Jehan%Alladina%NULL%0,                             Camille R.%Petri%NULL%2,                             Camille R.%Petri%NULL%0,                             Jason H.%Maley%NULL%2,                             Jason H.%Maley%NULL%0,                             Ari%Moskowitz%NULL%1,                             Benjamin D.%Medoff%NULL%1,                             Kathryn A.%Hibbert%NULL%2,                             Kathryn A.%Hibbert%NULL%0,                             B. Taylor%Thompson%NULL%1,                             C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                             Adam J%Russak%NULL%2,                             Adam J%Russak%NULL%0,                             Jessica K%De Freitas%NULL%1,                             Anuradha%Lala%NULL%1,                             Riccardo%Miotto%NULL%1,                             Akhil%Vaid%NULL%1,                             Kipp W%Johnson%NULL%1,                             Matteo%Danieletto%NULL%1,                             Eddye%Golden%NULL%1,                             Dara%Meyer%NULL%1,                             Manbir%Singh%NULL%1,                             Sulaiman%Somani%NULL%1,                             Arjun%Kapoor%NULL%1,                             Ross%O'Hagan%NULL%1,                             Sayan%Manna%NULL%1,                             Udit%Nangia%NULL%1,                             Suraj K%Jaladanki%NULL%1,                             Paul%O’Reilly%NULL%2,                             Paul%O’Reilly%NULL%0,                             Laura M%Huckins%NULL%1,                             Patricia%Glowe%NULL%1,                             Arash%Kia%NULL%1,                             Prem%Timsina%NULL%1,                             Robert M%Freeman%NULL%1,                             Matthew A%Levin%NULL%1,                             Jeffrey%Jhang%NULL%1,                             Adolfo%Firpo%NULL%1,                             Patricia%Kovatch%NULL%1,                             Joseph%Finkelstein%NULL%1,                             Judith A%Aberg%NULL%1,                             Emilia%Bagiella%NULL%1,                             Carol R%Horowitz%NULL%1,                             Barbara%Murphy%NULL%1,                             Zahi A%Fayad%NULL%1,                             Jagat%Narula%NULL%1,                             Eric J%Nestler%NULL%1,                             V%Fuster%NULL%1,                             Carlos%Cordon-Cardo%NULL%1,                             Dennis%Charney%NULL%1,                             David L%Reich%NULL%1,                             Allan%Just%NULL%1,                             Erwin P%Bottinger%NULL%1,                             Alexander W%Charney%NULL%1,                             Benjamin S%Glicksberg%NULL%1,                             Girish N%Nadkarni%NULL%1,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%1,                              Xianlong%Zhou%xianlongzhou@whu.edu.cn%2,                              Xianlong%Zhou%xianlongzhou@whu.edu.cn%0,                              Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2,                              Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0,                              Bruno%Riou%bruno.riou@aphp.fr%2,                              Bruno%Riou%bruno.riou@aphp.fr%0,                              Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                              Yan%Zhao%doctoryanzhao@whu.edu.cn%0,                              Gilles%Hejblum%gilles.hejblum@inserm.fr%2,                              Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0,                              Peiyun%Li%NULL%1,                              Liang%Ma%NULL%1,                              Hang%Liang%NULL%1,                              Jie%Lei%NULL%0,                              Wenqiang%Li%NULL%1,                              Kun%Wang%NULL%0,                              Yu%Song%NULL%1,                              Shuai%Li%NULL%1,                              Wei%Yang%NULL%1,                              Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                              Ting%Yu%NULL%0,                              Ronghui%Du%NULL%0,                              Guohui%Fan%NULL%0,                              Ying%Liu%NULL%0,                              Zhibo%Liu%NULL%0,                              Jie%Xiang%NULL%0,                              Yeming%Wang%NULL%0,                              Bin%Song%NULL%0,                              Xiaoying%Gu%NULL%0,                              Lulu%Guan%NULL%0,                              Yuan%Wei%NULL%0,                              Hui%Li%NULL%0,                              Xudong%Wu%NULL%0,                              Jiuyang%Xu%NULL%0,                              Shengjin%Tu%NULL%0,                              Yi%Zhang%NULL%0,                              Hua%Chen%NULL%0,                              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%1,                              Zhiheng%Xu%NULL%1,                              Xuesong%Liu%NULL%1,                              Lihua%Cai%NULL%1,                              Haichong%Zheng%NULL%1,                              Yongbo%Huang%NULL%1,                              Lixin%Zhou%NULL%1,                              Linxi%Huang%NULL%1,                              Yun%Ling%NULL%0,                              Liehua%Deng%NULL%1,                              Jianwei%Li%NULL%0,                              Sibei%Chen%NULL%1,                              Dongdong%Liu%NULL%1,                              Zhimin%Lin%NULL%1,                              Liang%Zhou%NULL%1,                              Weiqun%He%NULL%1,                              Nanshan%Zhong%NULL%0,                              Xiaoqing%Liu%NULL%3,                              Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0,                              Li-jun%Sun%NULL%1,                              Mi%Xu%NULL%1,                              Jian%Pan%NULL%1,                              Yun-tao%Zhang%NULL%1,                              Xue-ling%Fang%NULL%1,                              Qiang%Fang%NULL%1,                              Hong-liu%Cai%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                              Li-Min%Liu%NULL%2,                              Wen%Yin%NULL%0,                              Wen%Wang%NULL%0,                              Lu-Lu%Guan%NULL%2,                              Ming-Li%Yuan%NULL%0,                              Yu-Lei%Li%NULL%2,                              Yi%Hu%NULL%0,                              Xu-Yan%Li%NULL%0,                              Bing%Sun%NULL%2,                              Peng%Peng%NULL%0,                              Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                              Wenlin%Cheng%NULL%0,                              Lei%Yu%NULL%0,                              Ya-Kun%Liu%NULL%0,                              Xiaoyong%Hu%NULL%0,                              Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                              Zheng-yi%Ni%NULL%0,                              Zheng-yi%Ni%NULL%0,                              Yu%Hu%NULL%0,                              Wen-hua%Liang%NULL%0,                              Chun-quan%Ou%NULL%0,                              Jian-xing%He%NULL%0,                              Lei%Liu%NULL%0,                              Hong%Shan%NULL%0,                              Chun-liang%Lei%NULL%0,                              David S.C.%Hui%NULL%0,                              Bin%Du%NULL%0,                              Lan-juan%Li%NULL%0,                              Guang%Zeng%NULL%0,                              Kwok-Yung%Yuen%NULL%0,                              Ru-chong%Chen%NULL%0,                              Chun-li%Tang%NULL%0,                              Tao%Wang%NULL%0,                              Ping-yan%Chen%NULL%0,                              Jie%Xiang%NULL%0,                              Shi-yue%Li%NULL%0,                              Jin-lin%Wang%NULL%0,                              Zi-jing%Liang%NULL%0,                              Yi-xiang%Peng%NULL%0,                              Li%Wei%NULL%0,                              Yong%Liu%NULL%0,                              Ya-hua%Hu%NULL%0,                              Peng%Peng%NULL%0,                              Jian-ming%Wang%NULL%0,                              Ji-yang%Liu%NULL%0,                              Zhong%Chen%NULL%0,                              Gang%Li%NULL%0,                              Zhi-jian%Zheng%NULL%0,                              Shao-qin%Qiu%NULL%0,                              Jie%Luo%NULL%0,                              Chang-jiang%Ye%NULL%0,                              Shao-yong%Zhu%NULL%0,                              Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                              Fang%Jiang%NULL%0,                              Wating%Su%NULL%2,                              Chang%Chen%NULL%2,                              Jingli%Chen%NULL%2,                              Wei%Mei%NULL%2,                              Li-Ying%Zhan%NULL%2,                              Yifan%Jia%NULL%2,                              Liangqing%Zhang%NULL%2,                              Danyong%Liu%NULL%2,                              Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%2,                              Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                              Yuan%Yu%NULL%0,                              Jiqian%Xu%NULL%0,                              Huaqing%Shu%NULL%0,                              Jia'an%Xia%NULL%0,                              Hong%Liu%NULL%0,                              Yongran%Wu%NULL%0,                              Lu%Zhang%NULL%0,                              Zhui%Yu%NULL%0,                              Minghao%Fang%NULL%0,                              Ting%Yu%NULL%0,                              Yaxin%Wang%NULL%0,                              Shangwen%Pan%NULL%0,                              Xiaojing%Zou%NULL%0,                              Shiying%Yuan%NULL%0,                              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                              Yeming%Wang%NULL%0,                              Xingwang%Li%NULL%0,                              Lili%Ren%NULL%0,                              Jianping%Zhao%NULL%0,                              Yi%Hu%NULL%0,                              Li%Zhang%NULL%0,                              Guohui%Fan%NULL%0,                              Jiuyang%Xu%NULL%0,                              Xiaoying%Gu%NULL%0,                              Zhenshun%Cheng%NULL%0,                              Ting%Yu%NULL%0,                              Jiaan%Xia%NULL%0,                              Yuan%Wei%NULL%0,                              Wenjuan%Wu%NULL%0,                              Xuelei%Xie%NULL%0,                              Wen%Yin%NULL%0,                              Hui%Li%NULL%0,                              Min%Liu%NULL%0,                              Yan%Xiao%NULL%0,                              Hong%Gao%NULL%0,                              Li%Guo%NULL%0,                              Jungang%Xie%NULL%0,                              Guangfa%Wang%NULL%0,                              Rongmeng%Jiang%NULL%0,                              Zhancheng%Gao%NULL%0,                              Qi%Jin%NULL%0,                              Jianwei%Wang%wangjw28@163.com%0,                              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%1,                              Xiaofan%Lu%NULL%1,                              Yongsheng%Li%NULL%2,                              Yongsheng%Li%NULL%0,                              Hui%Chen%NULL%3,                              Taige%Chen%NULL%1,                              Nan%Su%NULL%1,                              Fang%Huang%NULL%1,                              Jing%Zhou%NULL%1,                              Bing%Zhang%NULL%1,                              Fangrong%Yan%NULL%2,                              Fangrong%Yan%NULL%0,                              Jun%Wang%NULL%2,                              Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0,                              Mikael%Chetboun%NULL%1,                              Julien%Poissy%NULL%1,                              Violeta%Raverdy%NULL%1,                              Jerome%Noulette%NULL%2,                              Jerome%Noulette%NULL%0,                              Alain%Duhamel%NULL%0,                              Julien%Labreuche%NULL%0,                              Daniel%Mathieu%NULL%2,                              Francois%Pattou%francois.pattou@univ-lille.fr%1,                              Merce%Jourdain%mercedes.jourdain@univ-lille.fr%2,                              Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0,                              Robert%Caizzo%NULL%2,                              Robert%Caizzo%NULL%0,                              Morgan%Caplan%NULL%1,                              Nicolas%Cousin%NULL%1,                              Thibault%Duburcq%NULL%1,                              Arthur%Durand%NULL%1,                              Ahmed%El kalioubie%NULL%1,                              Raphael%Favory%NULL%1,                              Bruno%Garcia%NULL%1,                              Patrick%Girardie%NULL%1,                              Julien%Goutay%NULL%1,                              Marion%Houard%NULL%1,                              Emmanuelle%Jaillette%NULL%1,                              Nicolas%Kostuj%NULL%1,                              Geoffrey%Ledoux%NULL%1,                              Daniel%Mathieu%NULL%0,                              Anne Sophie%Moreau%NULL%1,                              Christopher%Niles%NULL%1,                              Saad%Nseir%NULL%1,                              Thierry%Onimus%NULL%1,                              Erika%Parmentier%NULL%1,                              Sebastien%Préau%NULL%1,                              Laurent%Robriquet%NULL%1,                              Anahita%Rouze%NULL%1,                              Sophie%Six%NULL%1,                              Hélène%Verkindt%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,                              Samuel L%Bruce%NULL%1,                              Cody L%Slater%NULL%1,                              Jonathan R%Tiao%NULL%1,                              Matthew R%Baldwin%NULL%2,                              R Graham%Barr%NULL%1,                              Bernard P%Chang%NULL%1,                              Katherine H%Chau%NULL%1,                              Justin J%Choi%NULL%1,                              Nicholas%Gavin%NULL%1,                              Parag%Goyal%NULL%1,                              Angela M%Mills%NULL%1,                              Ashmi A%Patel%NULL%1,                              Marie-Laure S%Romney%NULL%1,                              Monika M%Safford%NULL%1,                              Neil W%Schluger%NULL%1,                              Soumitra%Sengupta%NULL%1,                              Magdalena E%Sobieszczyk%NULL%1,                              Jason E%Zucker%NULL%1,                              Paul A%Asadourian%NULL%1,                              Fletcher M%Bell%NULL%1,                              Rebekah%Boyd%NULL%1,                              Matthew F%Cohen%NULL%1,                              MacAlistair I%Colquhoun%NULL%1,                              Lucy A%Colville%NULL%1,                              Joseph H%de Jonge%NULL%1,                              Lyle B%Dershowitz%NULL%1,                              Shirin A%Dey%NULL%1,                              Katherine A%Eiseman%NULL%1,                              Zachary P%Girvin%NULL%1,                              Daniella T%Goni%NULL%1,                              Amro A%Harb%NULL%1,                              Nicholas%Herzik%NULL%1,                              Sarah%Householder%NULL%1,                              Lara E%Karaaslan%NULL%1,                              Heather%Lee%NULL%1,                              Evan%Lieberman%NULL%1,                              Andrew%Ling%NULL%1,                              Ree%Lu%NULL%1,                              Arthur Y%Shou%NULL%1,                              Alexander C%Sisti%NULL%1,                              Zachary E%Snow%NULL%1,                              Colin P%Sperring%NULL%1,                              Yuqing%Xiong%NULL%1,                              Henry W%Zhou%NULL%1,                              Karthik%Natarajan%NULL%1,                              George%Hripcsak%NULL%1,                              Ruijun%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,                              Mark%Caridi-Scheible%NULL%0,                              James M.%Blum%NULL%0,                              Chad%Robichaux%NULL%0,                              Colleen%Kraft%NULL%0,                              Jesse T.%Jacob%NULL%0,                              Craig S.%Jabaley%NULL%0,                              David%Carpenter%NULL%0,                              Roberta%Kaplow%NULL%0,                              Alfonso C.%Hernandez-Romieu%NULL%0,                              Max W.%Adelman%NULL%0,                              Greg S.%Martin%NULL%0,                              Craig M.%Coopersmith%NULL%0,                              David J.%Murphy%NULL%0,                              NULL%NULL%NULL%0,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0,                              Bijan J.%Ghassemieh%NULL%0,                              Michelle%Nichols%NULL%0,                              Richard%Kim%NULL%0,                              Keith R.%Jerome%NULL%0,                              Arun K.%Nalla%NULL%0,                              Alexander L.%Greninger%NULL%0,                              Sudhakar%Pipavath%NULL%0,                              Mark M.%Wurfel%NULL%0,                              Laura%Evans%NULL%0,                              Patricia A.%Kritek%NULL%0,                              T. Eoin%West%NULL%0,                              Andrew%Luks%NULL%0,                              Anthony%Gerbino%NULL%0,                              Chris R.%Dale%NULL%0,                              Jason D.%Goldman%NULL%0,                              Shane%O’Mahony%NULL%0,                              Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%1,                              Jehan%Alladina%NULL%2,                              Jehan%Alladina%NULL%0,                              Camille R.%Petri%NULL%2,                              Camille R.%Petri%NULL%0,                              Jason H.%Maley%NULL%2,                              Jason H.%Maley%NULL%0,                              Ari%Moskowitz%NULL%1,                              Benjamin D.%Medoff%NULL%1,                              Kathryn A.%Hibbert%NULL%2,                              Kathryn A.%Hibbert%NULL%0,                              B. Taylor%Thompson%NULL%1,                              C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0,                              Adam J%Russak%NULL%2,                              Adam J%Russak%NULL%0,                              Jessica K%De Freitas%NULL%1,                              Anuradha%Lala%NULL%1,                              Riccardo%Miotto%NULL%1,                              Akhil%Vaid%NULL%1,                              Kipp W%Johnson%NULL%1,                              Matteo%Danieletto%NULL%1,                              Eddye%Golden%NULL%1,                              Dara%Meyer%NULL%1,                              Manbir%Singh%NULL%1,                              Sulaiman%Somani%NULL%1,                              Arjun%Kapoor%NULL%1,                              Ross%O'Hagan%NULL%1,                              Sayan%Manna%NULL%1,                              Udit%Nangia%NULL%1,                              Suraj K%Jaladanki%NULL%1,                              Paul%O’Reilly%NULL%2,                              Paul%O’Reilly%NULL%0,                              Laura M%Huckins%NULL%1,                              Patricia%Glowe%NULL%1,                              Arash%Kia%NULL%1,                              Prem%Timsina%NULL%1,                              Robert M%Freeman%NULL%1,                              Matthew A%Levin%NULL%1,                              Jeffrey%Jhang%NULL%1,                              Adolfo%Firpo%NULL%1,                              Patricia%Kovatch%NULL%1,                              Joseph%Finkelstein%NULL%1,                              Judith A%Aberg%NULL%1,                              Emilia%Bagiella%NULL%1,                              Carol R%Horowitz%NULL%1,                              Barbara%Murphy%NULL%1,                              Zahi A%Fayad%NULL%1,                              Jagat%Narula%NULL%1,                              Eric J%Nestler%NULL%1,                              V%Fuster%NULL%1,                              Carlos%Cordon-Cardo%NULL%1,                              Dennis%Charney%NULL%1,                              David L%Reich%NULL%1,                              Allan%Just%NULL%1,                              Erwin P%Bottinger%NULL%1,                              Alexander W%Charney%NULL%1,                              Benjamin S%Glicksberg%NULL%1,                              Girish N%Nadkarni%NULL%1,                              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathanael%Lapidus%nathanael.lapidus@inserm.fr%0, Xianlong%Zhou%xianlongzhou@whu.edu.cn%2, Xianlong%Zhou%xianlongzhou@whu.edu.cn%0, Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%2, Fabrice%Carrat%fabrice.carrat@iplesp.upmc.fr%0, Bruno%Riou%bruno.riou@aphp.fr%2, Bruno%Riou%bruno.riou@aphp.fr%0, Yan%Zhao%doctoryanzhao@whu.edu.cn%0, Yan%Zhao%doctoryanzhao@whu.edu.cn%0, Gilles%Hejblum%gilles.hejblum@inserm.fr%2, Gilles%Hejblum%gilles.hejblum@inserm.fr%0]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: A novel pneumonia (COVID-19) spread rapidly throughout worldwide, in December, 2019. Most of the deaths have occurred in severe and critical cases, but information on prognostic risk factors for severely ill patients is incomplete.
+ Further research is urgently needed to guide clinicians, and we therefore prospectively evaluate the clinical outcomes of 114 severely ill patients with COVID-19 for short-term at the Union Hospital in Wuhan, China.
+</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%0, Peiyun%Li%NULL%0, Liang%Ma%NULL%0, Hang%Liang%NULL%0, Jie%Lei%NULL%0, Wenqiang%Li%NULL%0, Kun%Wang%NULL%0, Yu%Song%NULL%0, Shuai%Li%NULL%0, Wei%Yang%NULL%0, Cao%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: Information about critically ill patients with coronavirus disease 2019 (COVID-19) in China but outside of Wuhan is scarce.
+ We aimed to describe the clinical features, treatment, and outcomes of patients with COVID-19 admitted to the intensive care unit (ICU) in Guangdong Province.
+</t>
+  </si>
+  <si>
+    <t>[Yonghao%Xu%NULL%0, Zhiheng%Xu%NULL%1, Xuesong%Liu%NULL%1, Lihua%Cai%NULL%1, Haichong%Zheng%NULL%1, Yongbo%Huang%NULL%1, Lixin%Zhou%NULL%1, Linxi%Huang%NULL%1, Yun%Ling%NULL%0, Liehua%Deng%NULL%1, Jianwei%Li%NULL%0, Sibei%Chen%NULL%1, Dongdong%Liu%NULL%1, Zhimin%Lin%NULL%1, Liang%Zhou%NULL%1, Weiqun%He%NULL%1, Nanshan%Zhong%NULL%0, Xiaoqing%Liu%NULL%0, Yimin%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: This study summarizes and compares clinical and laboratory characteristics of 34 patients admitted to the intensive care unit (ICU) for complications from coronavirus disease 2019 (COVID-19) at the First Affiliated Hospital, School of Medicine, Zhejiang University, Hangzhou, China from Jan.
+ 22 to Mar.
+ 5, 2020. Methods: A total of 34 patients were divided into two groups, including those who required noninvasive ventilation (NIV) and invasive mechanical ventilation (IMV) with additional extracorporeal membrane oxygenation (ECMO) in 11 patients.
+ Clinical features of COVID-19 patients were described and the parameters of clinical characteristics between the two groups were compared.
+ Results: The rates of the acute cardiac and kidney complications were higher in IMV cases than those in NIV cases.
+ Most patients had lymphocytopenia on admission, with lymphocyte levels dropping progressively on the following days, and the more severe lymphopenia developed in the IMV group.
+ In both groups, T lymphocyte counts were below typical lower limit norms compared to B lymphocytes.
+ On admission, both groups had higher than expected amounts of plasma interleukin-6 (IL-6), which over time declined more in NIV patients.
+ The prothrombin time was increased and the levels of platelet, hemoglobin, blood urea nitrogen (BUN), D-dimer, lactate dehydrogenase (LDH), and IL-6 were higher in IMV cases compared with NIV cases during hospitalization.
+ Conclusions: Data showed that the rates of complications, dynamics of lymphocytopenia, and changes in levels of platelet, hemoglobin, BUN, D-dimer, LDH and IL-6, and prothrombin time in these ICU patients were significantly different between IMV and NIV cases.
+</t>
+  </si>
+  <si>
+    <t>[Yi%Zheng%NULL%0, Li-jun%Sun%NULL%0, Mi%Xu%NULL%0, Jian%Pan%NULL%0, Yun-tao%Zhang%NULL%0, Xue-ling%Fang%NULL%0, Qiang%Fang%NULL%0, Hong-liu%Cai%NULL%0]</t>
+  </si>
+  <si>
+    <t>Zhejiang University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rationale: The current outbreak of coronavirus disease (COVID-19) pneumonia caused by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) in Wuhan, China, spreads across national and international borders.
+ The overall death rate of COVID-19 pneumonia in the Chinese population was 4%.
+</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0, Li-Min%Liu%NULL%0, Wen%Yin%NULL%0, Wen%Wang%NULL%0, Lu-Lu%Guan%NULL%0, Ming-Li%Yuan%NULL%0, Yu-Lei%Li%NULL%0, Yi%Hu%NULL%0, Xu-Yan%Li%NULL%0, Bing%Sun%NULL%0, Peng%Peng%NULL%0, Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Thoracic Society</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0, Wenlin%Cheng%NULL%0, Lei%Yu%NULL%0, Ya-Kun%Liu%NULL%0, Xiaoyong%Hu%NULL%0, Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%0, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%0, Wen-hua%Liang%NULL%0, Chun-quan%Ou%NULL%0, Jian-xing%He%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%0, David S.C.%Hui%NULL%0, Bin%Du%NULL%0, Lan-juan%Li%NULL%0, Guang%Zeng%NULL%0, Kwok-Yung%Yuen%NULL%0, Ru-chong%Chen%NULL%0, Chun-li%Tang%NULL%0, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%0, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%0, Jin-lin%Wang%NULL%0, Zi-jing%Liang%NULL%0, Yi-xiang%Peng%NULL%0, Li%Wei%NULL%0, Yong%Liu%NULL%0, Ya-hua%Hu%NULL%0, Peng%Peng%NULL%0, Jian-ming%Wang%NULL%0, Ji-yang%Liu%NULL%0, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhi-jian%Zheng%NULL%0, Shao-qin%Qiu%NULL%0, Jie%Luo%NULL%0, Chang-jiang%Ye%NULL%0, Shao-yong%Zhu%NULL%0, Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0, Fang%Jiang%NULL%0, Wating%Su%NULL%0, Chang%Chen%NULL%0, Jingli%Chen%NULL%0, Wei%Mei%NULL%0, Li-Ying%Zhan%NULL%0, Yifan%Jia%NULL%0, Liangqing%Zhang%NULL%0, Danyong%Liu%NULL%0, Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0, Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%0, Jia'an%Xia%NULL%0, Hong%Liu%NULL%0, Yongran%Wu%NULL%0, Lu%Zhang%NULL%0, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%0, Xiaojing%Zou%NULL%0, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%0, Lili%Ren%NULL%0, Jianping%Zhao%NULL%0, Yi%Hu%NULL%0, Li%Zhang%NULL%0, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%0, Ting%Yu%NULL%0, Jiaan%Xia%NULL%0, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%0, Xuelei%Xie%NULL%0, Wen%Yin%NULL%0, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Li%Guo%NULL%0, Jungang%Xie%NULL%0, Guangfa%Wang%NULL%0, Rongmeng%Jiang%NULL%0, Zhancheng%Gao%NULL%0, Qi%Jin%NULL%0, Jianwei%Wang%wangjw28@163.com%0, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Yang%Wang%NULL%0, Xiaofan%Lu%NULL%0, Yongsheng%Li%NULL%3, Yongsheng%Li%NULL%0, Hui%Chen%NULL%0, Taige%Chen%NULL%0, Nan%Su%NULL%2, Fang%Huang%NULL%1, Jing%Zhou%NULL%0, Bing%Zhang%NULL%1, Fangrong%Yan%NULL%0, Fangrong%Yan%NULL%0, Jun%Wang%NULL%0, Jun%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Arthur%Simonnet%NULL%0, Mikael%Chetboun%NULL%0, Julien%Poissy%NULL%0, Violeta%Raverdy%NULL%0, Jerome%Noulette%NULL%0, Jerome%Noulette%NULL%0, Alain%Duhamel%NULL%0, Julien%Labreuche%NULL%0, Daniel%Mathieu%NULL%0, Francois%Pattou%francois.pattou@univ-lille.fr%0, Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0, Merce%Jourdain%mercedes.jourdain@univ-lille.fr%0, Robert%Caizzo%NULL%0, Robert%Caizzo%NULL%0, Morgan%Caplan%NULL%0, Nicolas%Cousin%NULL%0, Thibault%Duburcq%NULL%0, Arthur%Durand%NULL%0, Ahmed%El kalioubie%NULL%0, Raphael%Favory%NULL%0, Bruno%Garcia%NULL%0, Patrick%Girardie%NULL%0, Julien%Goutay%NULL%0, Marion%Houard%NULL%0, Emmanuelle%Jaillette%NULL%0, Nicolas%Kostuj%NULL%0, Geoffrey%Ledoux%NULL%0, Daniel%Mathieu%NULL%0, Anne Sophie%Moreau%NULL%0, Christopher%Niles%NULL%0, Saad%Nseir%NULL%0, Thierry%Onimus%NULL%0, Erika%Parmentier%NULL%0, Sebastien%Préau%NULL%0, Laurent%Robriquet%NULL%0, Anahita%Rouze%NULL%0, Sophie%Six%NULL%0, Hélène%Verkindt%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0, Samuel L%Bruce%NULL%0, Cody L%Slater%NULL%0, Jonathan R%Tiao%NULL%0, Matthew R%Baldwin%NULL%0, R Graham%Barr%NULL%0, Bernard P%Chang%NULL%0, Katherine H%Chau%NULL%0, Justin J%Choi%NULL%0, Nicholas%Gavin%NULL%0, Parag%Goyal%NULL%0, Angela M%Mills%NULL%0, Ashmi A%Patel%NULL%0, Marie-Laure S%Romney%NULL%0, Monika M%Safford%NULL%0, Neil W%Schluger%NULL%0, Soumitra%Sengupta%NULL%0, Magdalena E%Sobieszczyk%NULL%0, Jason E%Zucker%NULL%0, Paul A%Asadourian%NULL%0, Fletcher M%Bell%NULL%0, Rebekah%Boyd%NULL%0, Matthew F%Cohen%NULL%0, MacAlistair I%Colquhoun%NULL%0, Lucy A%Colville%NULL%0, Joseph H%de Jonge%NULL%0, Lyle B%Dershowitz%NULL%0, Shirin A%Dey%NULL%0, Katherine A%Eiseman%NULL%0, Zachary P%Girvin%NULL%0, Daniella T%Goni%NULL%0, Amro A%Harb%NULL%0, Nicholas%Herzik%NULL%0, Sarah%Householder%NULL%0, Lara E%Karaaslan%NULL%0, Heather%Lee%NULL%0, Evan%Lieberman%NULL%0, Andrew%Ling%NULL%0, Ree%Lu%NULL%0, Arthur Y%Shou%NULL%0, Alexander C%Sisti%NULL%0, Zachary E%Snow%NULL%0, Colin P%Sperring%NULL%0, Yuqing%Xiong%NULL%0, Henry W%Zhou%NULL%0, Karthik%Natarajan%NULL%0, George%Hripcsak%NULL%0, Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0, Mark%Caridi-Scheible%NULL%0, James M.%Blum%NULL%0, Chad%Robichaux%NULL%0, Colleen%Kraft%NULL%0, Jesse T.%Jacob%NULL%0, Craig S.%Jabaley%NULL%0, David%Carpenter%NULL%0, Roberta%Kaplow%NULL%0, Alfonso C.%Hernandez-Romieu%NULL%0, Max W.%Adelman%NULL%0, Greg S.%Martin%NULL%0, Craig M.%Coopersmith%NULL%0, David J.%Murphy%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t>[Pavan K.%Bhatraju%NULL%0, Bijan J.%Ghassemieh%NULL%0, Michelle%Nichols%NULL%0, Richard%Kim%NULL%0, Keith R.%Jerome%NULL%0, Arun K.%Nalla%NULL%0, Alexander L.%Greninger%NULL%0, Sudhakar%Pipavath%NULL%0, Mark M.%Wurfel%NULL%0, Laura%Evans%NULL%0, Patricia A.%Kritek%NULL%0, T. Eoin%West%NULL%0, Andrew%Luks%NULL%0, Anthony%Gerbino%NULL%0, Chris R.%Dale%NULL%0, Jason D.%Goldman%NULL%0, Shane%O’Mahony%NULL%0, Carmen%Mikacenic%NULL%0]</t>
+  </si>
+  <si>
+    <t>[David R.%Ziehr%NULL%0, Jehan%Alladina%NULL%2, Jehan%Alladina%NULL%0, Camille R.%Petri%NULL%2, Camille R.%Petri%NULL%0, Jason H.%Maley%NULL%2, Jason H.%Maley%NULL%0, Ari%Moskowitz%NULL%1, Benjamin D.%Medoff%NULL%1, Kathryn A.%Hibbert%NULL%2, Kathryn A.%Hibbert%NULL%0, B. Taylor%Thompson%NULL%1, C. Corey%Hardin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%0, Adam J%Russak%NULL%0, Adam J%Russak%NULL%0, Jessica K%De Freitas%NULL%0, Anuradha%Lala%NULL%0, Riccardo%Miotto%NULL%0, Akhil%Vaid%NULL%0, Kipp W%Johnson%NULL%0, Matteo%Danieletto%NULL%0, Eddye%Golden%NULL%0, Dara%Meyer%NULL%0, Manbir%Singh%NULL%0, Sulaiman%Somani%NULL%0, Arjun%Kapoor%NULL%0, Ross%O'Hagan%NULL%0, Sayan%Manna%NULL%0, Udit%Nangia%NULL%0, Suraj K%Jaladanki%NULL%0, Paul%O’Reilly%NULL%0, Paul%O’Reilly%NULL%0, Laura M%Huckins%NULL%0, Patricia%Glowe%NULL%0, Arash%Kia%NULL%0, Prem%Timsina%NULL%0, Robert M%Freeman%NULL%0, Matthew A%Levin%NULL%0, Jeffrey%Jhang%NULL%0, Adolfo%Firpo%NULL%0, Patricia%Kovatch%NULL%0, Joseph%Finkelstein%NULL%0, Judith A%Aberg%NULL%0, Emilia%Bagiella%NULL%0, Carol R%Horowitz%NULL%0, Barbara%Murphy%NULL%0, Zahi A%Fayad%NULL%0, Jagat%Narula%NULL%0, Eric J%Nestler%NULL%0, V%Fuster%NULL%0, Carlos%Cordon-Cardo%NULL%0, Dennis%Charney%NULL%0, David L%Reich%NULL%0, Allan%Just%NULL%0, Erwin P%Bottinger%NULL%0, Alexander W%Charney%NULL%0, Benjamin S%Glicksberg%NULL%0, Girish N%Nadkarni%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
   </si>
 </sst>
 </file>
@@ -2936,10 +3162,10 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>382</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>726</v>
+        <v>783</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -2951,10 +3177,10 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>546</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>784</v>
       </c>
     </row>
     <row r="3">
@@ -2968,10 +3194,10 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>785</v>
       </c>
       <c r="E3" t="s">
-        <v>727</v>
+        <v>786</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -2983,10 +3209,10 @@
         <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4">
@@ -2997,25 +3223,25 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>728</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>432</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>550</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
         <v>101</v>
@@ -3035,7 +3261,7 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>729</v>
+        <v>788</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -3047,10 +3273,10 @@
         <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>552</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6">
@@ -3064,10 +3290,10 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>790</v>
       </c>
       <c r="E6" t="s">
-        <v>730</v>
+        <v>791</v>
       </c>
       <c r="F6" t="s">
         <v>67</v>
@@ -3079,10 +3305,10 @@
         <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7">
@@ -3096,10 +3322,10 @@
         <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>792</v>
       </c>
       <c r="E7" t="s">
-        <v>731</v>
+        <v>793</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
@@ -3111,10 +3337,10 @@
         <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>546</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>101</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8">
@@ -3128,10 +3354,10 @@
         <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>795</v>
       </c>
       <c r="E8" t="s">
-        <v>732</v>
+        <v>796</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -3143,10 +3369,10 @@
         <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9">
@@ -3163,7 +3389,7 @@
         <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>733</v>
+        <v>798</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -3175,10 +3401,10 @@
         <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10">
@@ -3195,7 +3421,7 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>734</v>
+        <v>800</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -3207,10 +3433,10 @@
         <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>801</v>
       </c>
     </row>
     <row r="11">
@@ -3227,7 +3453,7 @@
         <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>735</v>
+        <v>802</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
@@ -3239,10 +3465,10 @@
         <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>552</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12">
@@ -3259,7 +3485,7 @@
         <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>736</v>
+        <v>804</v>
       </c>
       <c r="F12" t="s">
         <v>95</v>
@@ -3271,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>552</v>
+        <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13">
@@ -3291,7 +3517,7 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>737</v>
+        <v>805</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
@@ -3303,10 +3529,10 @@
         <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>552</v>
+        <v>101</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>789</v>
       </c>
     </row>
     <row r="14">
@@ -3323,7 +3549,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>738</v>
+        <v>806</v>
       </c>
       <c r="F14" t="s">
         <v>103</v>
@@ -3335,10 +3561,10 @@
         <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15">
@@ -3349,25 +3575,25 @@
         <v>43949.0</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>739</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
         <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>563</v>
+        <v>101</v>
       </c>
       <c r="J15" t="s">
         <v>101</v>
@@ -3387,7 +3613,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>740</v>
+        <v>807</v>
       </c>
       <c r="F16" t="s">
         <v>107</v>
@@ -3399,10 +3625,10 @@
         <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17">
@@ -3413,28 +3639,28 @@
         <v>43949.0</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>445</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>612</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
         <v>101</v>
       </c>
       <c r="J17" t="s">
-        <v>613</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18">
@@ -3451,7 +3677,7 @@
         <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>741</v>
+        <v>809</v>
       </c>
       <c r="F18" t="s">
         <v>112</v>
@@ -3463,10 +3689,10 @@
         <v>113</v>
       </c>
       <c r="I18" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19">
@@ -3483,7 +3709,7 @@
         <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>742</v>
+        <v>811</v>
       </c>
       <c r="F19" t="s">
         <v>117</v>
@@ -3495,10 +3721,10 @@
         <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>812</v>
       </c>
     </row>
     <row r="20">
@@ -3515,7 +3741,7 @@
         <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>743</v>
+        <v>813</v>
       </c>
       <c r="F20" t="s">
         <v>121</v>
@@ -3527,10 +3753,10 @@
         <v>63</v>
       </c>
       <c r="I20" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>801</v>
       </c>
     </row>
     <row r="21">
@@ -3541,28 +3767,28 @@
         <v>43984.0</v>
       </c>
       <c r="C21" t="s">
-        <v>307</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>449</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>612</v>
+        <v>63</v>
       </c>
       <c r="I21" t="s">
         <v>101</v>
       </c>
       <c r="J21" t="s">
-        <v>613</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -3573,25 +3799,25 @@
         <v>43977.0</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>744</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
         <v>63</v>
       </c>
       <c r="I22" t="s">
-        <v>563</v>
+        <v>101</v>
       </c>
       <c r="J22" t="s">
         <v>101</v>
@@ -3611,7 +3837,7 @@
         <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>745</v>
+        <v>814</v>
       </c>
       <c r="F23" t="s">
         <v>124</v>
@@ -3623,10 +3849,10 @@
         <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
+        <v>797</v>
       </c>
     </row>
     <row r="24">
@@ -3643,7 +3869,7 @@
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>746</v>
+        <v>815</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>
@@ -3655,10 +3881,10 @@
         <v>129</v>
       </c>
       <c r="I24" t="s">
-        <v>548</v>
+        <v>101</v>
       </c>
       <c r="J24" t="s">
-        <v>101</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
